--- a/dynamics.xlsx
+++ b/dynamics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjubisht\Documents\GitHub\INTEGRATIONTEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB647857-F161-4C24-8322-946F9F9148F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCCD2EA-39CF-43A2-ABDC-DC74C44A8E1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,7 +608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
